--- a/biology/Botanique/Salix_carmanica/Salix_carmanica.xlsx
+++ b/biology/Botanique/Salix_carmanica/Salix_carmanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix carmanica est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un gros arbuste avec une écorce bleu verdâtre et des rameaux dorés et pendants. Le limbe des feuilles mesure de 3 à 5 cm de long. Ce saule se rencontre en Iran, en Afghanistan et en Chine où il est cultivé.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix carmanica est un arbuste qui peut aller jusqu'à 6 mètres de haut, avec une écorce lisse. Les branches sont minces et velues. Les feuilles sont portées par un pétiole de 2 mm de long et présentent une bordure dentée[2].
-La floraison a lieu en mai[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix carmanica est un arbuste qui peut aller jusqu'à 6 mètres de haut, avec une écorce lisse. Les branches sont minces et velues. Les feuilles sont portées par un pétiole de 2 mm de long et présentent une bordure dentée.
+La floraison a lieu en mai.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Iran, en Afghanistan et dans la province chinoise du Xinjiang[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Iran, en Afghanistan et dans la province chinoise du Xinjiang,.
 </t>
         </is>
       </c>
